--- a/sd_mine_EMG.xlsx
+++ b/sd_mine_EMG.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>MAV , CC</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>Trace SD</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -324,6 +327,56 @@
         <v>6.0074953183502355</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.100996534501604</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9252513742688047</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03674991256134175</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.022620531650275</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.5435538883144433</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.217584363748626</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.276640880978019</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.310420465267463</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.958338677803065</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.435186030802653</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.651470290175885</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.065336416975523</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.025690748957605</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.546103239782389</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>11.305240510113663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -331,7 +384,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,6 +587,56 @@
         <v>1.345362404707371</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.17060424980598507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.833734662982283</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00266304614972239</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.897484167180915</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.017639066039341886</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9900985522397997</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.18156923211239628</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.292415367705119</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.19155259682525203</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.049279705579732</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.2878600219588</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.1151629215969892</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.8982001914642248</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.017628022014683078</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.8966327963876983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -541,7 +644,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,6 +847,56 @@
         <v>2.8301943396169813</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4285852477327999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1592346584283886</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.006117605554676481</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.599061586492872</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.289878090575323</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4684143479180283</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.409897929326988</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.011633755990408</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.917295613575523</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8813048802602795</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>33.95230965473998</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14.899430842038095</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.599620307055454</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.2910407119278575</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>84.81120603692578</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -751,7 +904,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,6 +1107,56 @@
         <v>3.6180105030251086</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2908855775859471</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4221735287880926</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.005043524273514312</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.8922437684444335</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.5803709201301404</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9929829546965563</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2704956872828417</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.718497221657607</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.3622866089883323</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.6233509392818164</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36.26470478265078</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17.000701249723974</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.8896651568185323</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.5783120111480897</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>66.02600653852342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -961,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,6 +1367,56 @@
         <v>7.9515197708781855</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.888873861980685</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9185060081482374</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07611365453726998</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6079480655280682</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.3327697571534383</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>18.314914732994406</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.647029500955299</v>
+      </c>
+      <c r="W5" t="n">
+        <v>61.648661267478985</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19.192373444759014</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9418775679608319</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12.728459148555919</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.7688273712551523</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.5719138219381095</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.331607527895039</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>9.864629574212351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1171,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,6 +1627,56 @@
         <v>9.232551110067034</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.307886017380093</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8382896808494182</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.14798131495278358</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.310569779336032</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.497587087736609</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17.994745137005538</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.096536096521219</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.227817447783437</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>20.949121620098417</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9587516268514867</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.7284382659756954</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.4545855893714785</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.3434662272539215</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.523244536051863</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.2828715262505845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1381,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,6 +1887,56 @@
         <v>5.66705880996091</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9391982816475433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.357056631934884</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.017455406595220976</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.062573276659963</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.31733747346084773</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.65228064271653</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8653972805485179</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19.224383539444602</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.2578035787494988</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1785833595356252</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21.452901543195754</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.8149147875522795</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.059574799504038</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.3170688175179208</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.298669576644133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1591,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,6 +2147,56 @@
         <v>5.797413216254298</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4413483752713354</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1460439912611025</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.012267069208337129</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.305532869948481</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6109842493858042</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6492372865760085</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.43654673739990746</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.475535116337326</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.237532109062851</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1590204238854565</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11.277081911577866</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.817959245252643</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.3071136264460885</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6114745493827558</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>9.19244904166535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1801,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,6 +2407,56 @@
         <v>11.643262238546187</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.887848406532721</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0098936820016218</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07985274760400614</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.063697007392537</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.034875456516579</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>22.051338859385854</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.03450716263627</v>
+      </c>
+      <c r="W5" t="n">
+        <v>105.7069295837905</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>28.215313284379913</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.220679843682869</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>30.139900523461094</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.028414426499104</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.056236982776979</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.038329952925962</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>21.88827727219915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2011,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,6 +2667,56 @@
         <v>4.5661800227323495</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.31785982940659036</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0856945208808453</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.006384554910962774</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5319821164977054</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6143958688116288</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.2574691018038093</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1893463129014461</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.583081122684927</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8237596982663389</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.3932112661257934</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24.992122386190896</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.875920560724343</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.532244826646799</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.613786803608615</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>27.58089957520527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2221,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,6 +2927,56 @@
         <v>5.914577095805095</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.8386692362453372</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4750939701833212</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.019125834124636466</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.499084244048931</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6536122775618325</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.221638988585704</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.7708632956253358</v>
+      </c>
+      <c r="W5" t="n">
+        <v>37.43665188789094</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.888482111948018</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.4496819035045538</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>25.443320522046324</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.687616260752303</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.475323719259719</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6497162088230137</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>9.554539929195615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2431,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2634,6 +3187,56 @@
         <v>5.048762224545735</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5585429628976407</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.196348976447853</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.014571713361833431</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.830991999055013</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.2508825618988673</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.4914592635149895</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4011394454699258</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.091799168629793</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.518684119529617</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9494370298081568</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>61.050731876527976</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55.514936810659655</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.798659683322402</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.2204159798148164</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>204.32935788696545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
